--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Cd200r4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.6909230213197</v>
+        <v>62.52283866666667</v>
       </c>
       <c r="H2">
-        <v>57.6909230213197</v>
+        <v>187.568516</v>
       </c>
       <c r="I2">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="J2">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.557824974731609</v>
+        <v>0.043414</v>
       </c>
       <c r="N2">
-        <v>9.557824974731609</v>
+        <v>0.130242</v>
       </c>
       <c r="O2">
-        <v>0.4432516209405771</v>
+        <v>0.001842419686857403</v>
       </c>
       <c r="P2">
-        <v>0.4432516209405771</v>
+        <v>0.001842419686857403</v>
       </c>
       <c r="Q2">
-        <v>551.3997448684881</v>
+        <v>2.714366517874667</v>
       </c>
       <c r="R2">
-        <v>551.3997448684881</v>
+        <v>24.429298660872</v>
       </c>
       <c r="S2">
-        <v>0.3303880647772476</v>
+        <v>0.001333712721950697</v>
       </c>
       <c r="T2">
-        <v>0.3303880647772476</v>
+        <v>0.001333712721950697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.6909230213197</v>
+        <v>62.52283866666667</v>
       </c>
       <c r="H3">
-        <v>57.6909230213197</v>
+        <v>187.568516</v>
       </c>
       <c r="I3">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="J3">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.975060147963511</v>
+        <v>10.819383</v>
       </c>
       <c r="N3">
-        <v>8.975060147963511</v>
+        <v>32.458149</v>
       </c>
       <c r="O3">
-        <v>0.4162254455528689</v>
+        <v>0.4591570516158454</v>
       </c>
       <c r="P3">
-        <v>0.4162254455528689</v>
+        <v>0.4591570516158454</v>
       </c>
       <c r="Q3">
-        <v>517.7795041078771</v>
+        <v>676.458537781876</v>
       </c>
       <c r="R3">
-        <v>517.7795041078771</v>
+        <v>6088.126840036884</v>
       </c>
       <c r="S3">
-        <v>0.310243466623883</v>
+        <v>0.3323800790242111</v>
       </c>
       <c r="T3">
-        <v>0.310243466623883</v>
+        <v>0.3323800790242111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.6909230213197</v>
+        <v>62.52283866666667</v>
       </c>
       <c r="H4">
-        <v>57.6909230213197</v>
+        <v>187.568516</v>
       </c>
       <c r="I4">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="J4">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.03009293128236</v>
+        <v>9.591807000000001</v>
       </c>
       <c r="N4">
-        <v>3.03009293128236</v>
+        <v>28.775421</v>
       </c>
       <c r="O4">
-        <v>0.140522933506554</v>
+        <v>0.4070607188772435</v>
       </c>
       <c r="P4">
-        <v>0.140522933506554</v>
+        <v>0.4070607188772435</v>
       </c>
       <c r="Q4">
-        <v>174.8088580460556</v>
+        <v>599.7070015828041</v>
       </c>
       <c r="R4">
-        <v>174.8088580460556</v>
+        <v>5397.363014245236</v>
       </c>
       <c r="S4">
-        <v>0.1047420874841567</v>
+        <v>0.294667964767028</v>
       </c>
       <c r="T4">
-        <v>0.1047420874841567</v>
+        <v>0.294667964767028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9278633173322</v>
+        <v>62.52283866666667</v>
       </c>
       <c r="H5">
-        <v>1.9278633173322</v>
+        <v>187.568516</v>
       </c>
       <c r="I5">
-        <v>0.02490822441903142</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="J5">
-        <v>0.02490822441903142</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.557824974731609</v>
+        <v>3.108974</v>
       </c>
       <c r="N5">
-        <v>9.557824974731609</v>
+        <v>9.326922</v>
       </c>
       <c r="O5">
-        <v>0.4432516209405771</v>
+        <v>0.1319398098200536</v>
       </c>
       <c r="P5">
-        <v>0.4432516209405771</v>
+        <v>0.1319398098200536</v>
       </c>
       <c r="Q5">
-        <v>18.42618016226663</v>
+        <v>194.3818798208613</v>
       </c>
       <c r="R5">
-        <v>18.42618016226663</v>
+        <v>1749.436918387752</v>
       </c>
       <c r="S5">
-        <v>0.01104061084848734</v>
+        <v>0.09551016206785708</v>
       </c>
       <c r="T5">
-        <v>0.01104061084848734</v>
+        <v>0.09551016206785708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9278633173322</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="H6">
-        <v>1.9278633173322</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="I6">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="J6">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.975060147963511</v>
+        <v>0.043414</v>
       </c>
       <c r="N6">
-        <v>8.975060147963511</v>
+        <v>0.130242</v>
       </c>
       <c r="O6">
-        <v>0.4162254455528689</v>
+        <v>0.001842419686857403</v>
       </c>
       <c r="P6">
-        <v>0.4162254455528689</v>
+        <v>0.001842419686857403</v>
       </c>
       <c r="Q6">
-        <v>17.30268923010896</v>
+        <v>0.09372542819266667</v>
       </c>
       <c r="R6">
-        <v>17.30268923010896</v>
+        <v>0.8435288537340001</v>
       </c>
       <c r="S6">
-        <v>0.0103674368067422</v>
+        <v>4.605229070122505E-05</v>
       </c>
       <c r="T6">
-        <v>0.0103674368067422</v>
+        <v>4.605229070122505E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9278633173322</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="H7">
-        <v>1.9278633173322</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="I7">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="J7">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.03009293128236</v>
+        <v>10.819383</v>
       </c>
       <c r="N7">
-        <v>3.03009293128236</v>
+        <v>32.458149</v>
       </c>
       <c r="O7">
-        <v>0.140522933506554</v>
+        <v>0.4591570516158454</v>
       </c>
       <c r="P7">
-        <v>0.140522933506554</v>
+        <v>0.4591570516158454</v>
       </c>
       <c r="Q7">
-        <v>5.84160501032686</v>
+        <v>23.357702687047</v>
       </c>
       <c r="R7">
-        <v>5.84160501032686</v>
+        <v>210.219324183423</v>
       </c>
       <c r="S7">
-        <v>0.003500176763801876</v>
+        <v>0.01147688236798941</v>
       </c>
       <c r="T7">
-        <v>0.003500176763801876</v>
+        <v>0.01147688236798941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.7798786524662</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="H8">
-        <v>17.7798786524662</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="I8">
-        <v>0.2297181566956812</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="J8">
-        <v>0.2297181566956812</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.557824974731609</v>
+        <v>9.591807000000001</v>
       </c>
       <c r="N8">
-        <v>9.557824974731609</v>
+        <v>28.775421</v>
       </c>
       <c r="O8">
-        <v>0.4432516209405771</v>
+        <v>0.4070607188772435</v>
       </c>
       <c r="P8">
-        <v>0.4432516209405771</v>
+        <v>0.4070607188772435</v>
       </c>
       <c r="Q8">
-        <v>169.9369682322388</v>
+        <v>20.707518731663</v>
       </c>
       <c r="R8">
-        <v>169.9369682322388</v>
+        <v>186.367668584967</v>
       </c>
       <c r="S8">
-        <v>0.1018229453148422</v>
+        <v>0.01017470595462398</v>
       </c>
       <c r="T8">
-        <v>0.1018229453148422</v>
+        <v>0.01017470595462398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.7798786524662</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="H9">
-        <v>17.7798786524662</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="I9">
-        <v>0.2297181566956812</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="J9">
-        <v>0.2297181566956812</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.975060147963511</v>
+        <v>3.108974</v>
       </c>
       <c r="N9">
-        <v>8.975060147963511</v>
+        <v>9.326922</v>
       </c>
       <c r="O9">
-        <v>0.4162254455528689</v>
+        <v>0.1319398098200536</v>
       </c>
       <c r="P9">
-        <v>0.4162254455528689</v>
+        <v>0.1319398098200536</v>
       </c>
       <c r="Q9">
-        <v>159.5754803293765</v>
+        <v>6.711888316899334</v>
       </c>
       <c r="R9">
-        <v>159.5754803293765</v>
+        <v>60.406994852094</v>
       </c>
       <c r="S9">
-        <v>0.09561454212224364</v>
+        <v>0.003297907919808136</v>
       </c>
       <c r="T9">
-        <v>0.09561454212224364</v>
+        <v>0.003297907919808136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.256754</v>
+      </c>
+      <c r="I10">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="J10">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.043414</v>
+      </c>
+      <c r="N10">
+        <v>0.130242</v>
+      </c>
+      <c r="O10">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="P10">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="Q10">
+        <v>0.003715572718666666</v>
+      </c>
+      <c r="R10">
+        <v>0.033440154468</v>
+      </c>
+      <c r="S10">
+        <v>1.825658610060813E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.825658610060813E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.256754</v>
+      </c>
+      <c r="I11">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="J11">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.819383</v>
+      </c>
+      <c r="N11">
+        <v>32.458149</v>
+      </c>
+      <c r="O11">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="P11">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="Q11">
+        <v>0.9259732875939999</v>
+      </c>
+      <c r="R11">
+        <v>8.333759588345998</v>
+      </c>
+      <c r="S11">
+        <v>0.0004549799541506331</v>
+      </c>
+      <c r="T11">
+        <v>0.0004549799541506331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.256754</v>
+      </c>
+      <c r="I12">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="J12">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.591807000000001</v>
+      </c>
+      <c r="N12">
+        <v>28.775421</v>
+      </c>
+      <c r="O12">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="P12">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="Q12">
+        <v>0.820911604826</v>
+      </c>
+      <c r="R12">
+        <v>7.388204443434</v>
+      </c>
+      <c r="S12">
+        <v>0.0004033575582897585</v>
+      </c>
+      <c r="T12">
+        <v>0.0004033575582897585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>17.7798786524662</v>
-      </c>
-      <c r="H10">
-        <v>17.7798786524662</v>
-      </c>
-      <c r="I10">
-        <v>0.2297181566956812</v>
-      </c>
-      <c r="J10">
-        <v>0.2297181566956812</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.03009293128236</v>
-      </c>
-      <c r="N10">
-        <v>3.03009293128236</v>
-      </c>
-      <c r="O10">
-        <v>0.140522933506554</v>
-      </c>
-      <c r="P10">
-        <v>0.140522933506554</v>
-      </c>
-      <c r="Q10">
-        <v>53.87468462389596</v>
-      </c>
-      <c r="R10">
-        <v>53.87468462389596</v>
-      </c>
-      <c r="S10">
-        <v>0.03228066925859534</v>
-      </c>
-      <c r="T10">
-        <v>0.03228066925859534</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.256754</v>
+      </c>
+      <c r="I13">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="J13">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.108974</v>
+      </c>
+      <c r="N13">
+        <v>9.326922</v>
+      </c>
+      <c r="O13">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="P13">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="Q13">
+        <v>0.2660805034653333</v>
+      </c>
+      <c r="R13">
+        <v>2.394724531188</v>
+      </c>
+      <c r="S13">
+        <v>0.0001307395114837427</v>
+      </c>
+      <c r="T13">
+        <v>0.0001307395114837427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.762381</v>
+      </c>
+      <c r="I14">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="J14">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.043414</v>
+      </c>
+      <c r="N14">
+        <v>0.130242</v>
+      </c>
+      <c r="O14">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="P14">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="Q14">
+        <v>0.02550400291133334</v>
+      </c>
+      <c r="R14">
+        <v>0.229536026202</v>
+      </c>
+      <c r="S14">
+        <v>1.253147388884919E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.253147388884919E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.762381</v>
+      </c>
+      <c r="I15">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="J15">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.819383</v>
+      </c>
+      <c r="N15">
+        <v>32.458149</v>
+      </c>
+      <c r="O15">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="P15">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="Q15">
+        <v>6.355958343641</v>
+      </c>
+      <c r="R15">
+        <v>57.20362509276899</v>
+      </c>
+      <c r="S15">
+        <v>0.003123020582253624</v>
+      </c>
+      <c r="T15">
+        <v>0.003123020582253624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.762381</v>
+      </c>
+      <c r="I16">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="J16">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.591807000000001</v>
+      </c>
+      <c r="N16">
+        <v>28.775421</v>
+      </c>
+      <c r="O16">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="P16">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="Q16">
+        <v>5.634806137489001</v>
+      </c>
+      <c r="R16">
+        <v>50.713255237401</v>
+      </c>
+      <c r="S16">
+        <v>0.002768680125475213</v>
+      </c>
+      <c r="T16">
+        <v>0.002768680125475213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.762381</v>
+      </c>
+      <c r="I17">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="J17">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.108974</v>
+      </c>
+      <c r="N17">
+        <v>9.326922</v>
+      </c>
+      <c r="O17">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="P17">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="Q17">
+        <v>1.826398902364667</v>
+      </c>
+      <c r="R17">
+        <v>16.437590121282</v>
+      </c>
+      <c r="S17">
+        <v>0.0008974069770606493</v>
+      </c>
+      <c r="T17">
+        <v>0.0008974069770606493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.082465</v>
+      </c>
+      <c r="H18">
+        <v>0.247395</v>
+      </c>
+      <c r="I18">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="J18">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.043414</v>
+      </c>
+      <c r="N18">
+        <v>0.130242</v>
+      </c>
+      <c r="O18">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="P18">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="Q18">
+        <v>0.00358013551</v>
+      </c>
+      <c r="R18">
+        <v>0.03222121959</v>
+      </c>
+      <c r="S18">
+        <v>1.759111101817283E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.759111101817284E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.082465</v>
+      </c>
+      <c r="H19">
+        <v>0.247395</v>
+      </c>
+      <c r="I19">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="J19">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.819383</v>
+      </c>
+      <c r="N19">
+        <v>32.458149</v>
+      </c>
+      <c r="O19">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="P19">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="Q19">
+        <v>0.8922204190949999</v>
+      </c>
+      <c r="R19">
+        <v>8.029983771854999</v>
+      </c>
+      <c r="S19">
+        <v>0.0004383953736148059</v>
+      </c>
+      <c r="T19">
+        <v>0.000438395373614806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.082465</v>
+      </c>
+      <c r="H20">
+        <v>0.247395</v>
+      </c>
+      <c r="I20">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="J20">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.591807000000001</v>
+      </c>
+      <c r="N20">
+        <v>28.775421</v>
+      </c>
+      <c r="O20">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="P20">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="Q20">
+        <v>0.7909883642550001</v>
+      </c>
+      <c r="R20">
+        <v>7.118895278295001</v>
+      </c>
+      <c r="S20">
+        <v>0.0003886546777580673</v>
+      </c>
+      <c r="T20">
+        <v>0.0003886546777580673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.082465</v>
+      </c>
+      <c r="H21">
+        <v>0.247395</v>
+      </c>
+      <c r="I21">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="J21">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.108974</v>
+      </c>
+      <c r="N21">
+        <v>9.326922</v>
+      </c>
+      <c r="O21">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="P21">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="Q21">
+        <v>0.25638154091</v>
+      </c>
+      <c r="R21">
+        <v>2.30743386819</v>
+      </c>
+      <c r="S21">
+        <v>0.0001259738950260581</v>
+      </c>
+      <c r="T21">
+        <v>0.0001259738950260581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="H22">
+        <v>62.799544</v>
+      </c>
+      <c r="I22">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="J22">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.043414</v>
+      </c>
+      <c r="N22">
+        <v>0.130242</v>
+      </c>
+      <c r="O22">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="P22">
+        <v>0.001842419686857403</v>
+      </c>
+      <c r="Q22">
+        <v>0.9087931344053334</v>
+      </c>
+      <c r="R22">
+        <v>8.179138209648</v>
+      </c>
+      <c r="S22">
+        <v>0.0004465384306047535</v>
+      </c>
+      <c r="T22">
+        <v>0.0004465384306047534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="H23">
+        <v>62.799544</v>
+      </c>
+      <c r="I23">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="J23">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.819383</v>
+      </c>
+      <c r="N23">
+        <v>32.458149</v>
+      </c>
+      <c r="O23">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="P23">
+        <v>0.4591570516158454</v>
+      </c>
+      <c r="Q23">
+        <v>226.484106253784</v>
+      </c>
+      <c r="R23">
+        <v>2038.356956284056</v>
+      </c>
+      <c r="S23">
+        <v>0.1112836943136258</v>
+      </c>
+      <c r="T23">
+        <v>0.1112836943136258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="H24">
+        <v>62.799544</v>
+      </c>
+      <c r="I24">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="J24">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.591807000000001</v>
+      </c>
+      <c r="N24">
+        <v>28.775421</v>
+      </c>
+      <c r="O24">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="P24">
+        <v>0.4070607188772435</v>
+      </c>
+      <c r="Q24">
+        <v>200.787035245336</v>
+      </c>
+      <c r="R24">
+        <v>1807.083317208024</v>
+      </c>
+      <c r="S24">
+        <v>0.09865735579406847</v>
+      </c>
+      <c r="T24">
+        <v>0.09865735579406845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="H25">
+        <v>62.799544</v>
+      </c>
+      <c r="I25">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="J25">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.108974</v>
+      </c>
+      <c r="N25">
+        <v>9.326922</v>
+      </c>
+      <c r="O25">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="P25">
+        <v>0.1319398098200536</v>
+      </c>
+      <c r="Q25">
+        <v>65.08071650261867</v>
+      </c>
+      <c r="R25">
+        <v>585.7264485235679</v>
+      </c>
+      <c r="S25">
+        <v>0.03197761944881795</v>
+      </c>
+      <c r="T25">
+        <v>0.03197761944881795</v>
       </c>
     </row>
   </sheetData>
